--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="17235" windowHeight="6465" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="17235" windowHeight="6465"/>
   </bookViews>
   <sheets>
-    <sheet name="coryGross_hw4output" sheetId="4" r:id="rId1"/>
+    <sheet name="output" sheetId="4" r:id="rId1"/>
     <sheet name="Algorithm 1 - Quadratic" sheetId="1" r:id="rId2"/>
     <sheet name="Algorithm 2 - nlog(n)" sheetId="2" r:id="rId3"/>
     <sheet name="Algorithm 3 - Linear" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="coryGross_hw4output" localSheetId="0">coryGross_hw4output!$A$1:$F$20</definedName>
+    <definedName name="output">output!$A$1:$F$20</definedName>
+    <definedName name="outputData" localSheetId="0">output!$A$1:$F$20</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -22,7 +23,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="output" type="6" refreshedVersion="4" background="1" refreshOnLoad="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\cory\Desktop\Github\MaxSubSeq\output.txt" tab="0" comma="1">
+    <textPr codePage="437" sourceFile="C:\Users\cory\Desktop\Github\MaximumSubarray\output.txt" tab="0" comma="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -265,61 +266,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>172</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>254</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>380</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>398</c:v>
+                  <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>459</c:v>
+                  <c:v>439</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>578</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>678</c:v>
+                  <c:v>672</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>802</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>964</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1232</c:v>
+                  <c:v>1097</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1280</c:v>
+                  <c:v>1284</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1472</c:v>
+                  <c:v>1547</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1664</c:v>
+                  <c:v>1668</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1825</c:v>
+                  <c:v>1869</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2080</c:v>
+                  <c:v>2057</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2270</c:v>
+                  <c:v>2263</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2554</c:v>
+                  <c:v>2494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -334,11 +335,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50741248"/>
-        <c:axId val="83089600"/>
+        <c:axId val="57950208"/>
+        <c:axId val="90626240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50741248"/>
+        <c:axId val="57950208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -348,12 +349,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83089600"/>
+        <c:crossAx val="90626240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83089600"/>
+        <c:axId val="90626240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -364,14 +365,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50741248"/>
+        <c:crossAx val="57950208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -587,11 +587,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50743552"/>
-        <c:axId val="50744128"/>
+        <c:axId val="57952512"/>
+        <c:axId val="57953088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50743552"/>
+        <c:axId val="57952512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -601,12 +601,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50744128"/>
+        <c:crossAx val="57953088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50744128"/>
+        <c:axId val="57953088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -617,14 +617,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50743552"/>
+        <c:crossAx val="57952512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -670,7 +669,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -836,11 +834,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50745856"/>
-        <c:axId val="50746432"/>
+        <c:axId val="57954816"/>
+        <c:axId val="57955392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50745856"/>
+        <c:axId val="57954816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,12 +848,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50746432"/>
+        <c:crossAx val="57955392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50746432"/>
+        <c:axId val="57955392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -866,14 +864,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50745856"/>
+        <c:crossAx val="57954816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1096,11 +1093,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50748160"/>
-        <c:axId val="50748736"/>
+        <c:axId val="57957120"/>
+        <c:axId val="57957696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50748160"/>
+        <c:axId val="57957120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1110,12 +1107,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50748736"/>
+        <c:crossAx val="57957696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50748736"/>
+        <c:axId val="57957696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1126,7 +1123,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50748160"/>
+        <c:crossAx val="57957120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1188,7 +1185,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1364,11 +1360,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="66266240"/>
-        <c:axId val="66266816"/>
+        <c:axId val="137905280"/>
+        <c:axId val="137905856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66266240"/>
+        <c:axId val="137905280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,12 +1374,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66266816"/>
+        <c:crossAx val="137905856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66266816"/>
+        <c:axId val="137905856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1394,14 +1390,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66266240"/>
+        <c:crossAx val="137905280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1629,11 +1624,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="66268544"/>
-        <c:axId val="66269120"/>
+        <c:axId val="137907584"/>
+        <c:axId val="137908160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66268544"/>
+        <c:axId val="137907584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1643,12 +1638,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66269120"/>
+        <c:crossAx val="137908160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66269120"/>
+        <c:axId val="137908160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1659,7 +1654,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66268544"/>
+        <c:crossAx val="137907584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1759,7 +1754,7 @@
                 <a:srgbClr val="C00000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>coryGross_hw4output.txt</a:t>
+            <a:t>output.txt</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
@@ -1772,7 +1767,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>IF THERE IS A SECURITY WARNING PLEASE ENABLE THE DATA</a:t>
+            <a:t>IF THERE IS A SECURITY WARNING PLEASE CLICK ENABLE CONTENT</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1782,7 +1777,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> BROWSE TO THE ABOVE FILE**</a:t>
+            <a:t> BROWSE TO THE ABOVE FILE</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -1889,9 +1884,9 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1962152" cy="838200"/>
+    <xdr:ext cx="2028826" cy="809625"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -1899,8 +1894,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4514849" y="1638300"/>
-          <a:ext cx="1962152" cy="838200"/>
+          <a:off x="4514849" y="1638299"/>
+          <a:ext cx="2028826" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1993,7 +1988,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>PLEASE</a:t>
+            <a:t>PLEASE CLICK ENABLE CONTENT AND</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -2005,31 +2000,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> CLICK</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> ENABLE CONTENT AND</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> BROWSE TO THE OUTPUT FILE</a:t>
+            <a:t> BROWSE TO THE PROGRAM OUTPUT FILE</a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
@@ -6325,7 +6296,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="coryGross_hw4output" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="outputData" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6617,8 +6588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6652,10 +6623,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B2">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -6672,13 +6643,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B3">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>225</v>
@@ -6692,10 +6663,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="B4">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C4">
         <v>14</v>
@@ -6712,13 +6683,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>254</v>
+        <v>198</v>
       </c>
       <c r="B5">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>625</v>
@@ -6732,13 +6703,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>380</v>
+        <v>286</v>
       </c>
       <c r="B6">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>900</v>
@@ -6752,13 +6723,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="B7">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>1225</v>
@@ -6772,13 +6743,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="B8">
-        <v>745</v>
+        <v>695</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>1600</v>
@@ -6795,10 +6766,10 @@
         <v>578</v>
       </c>
       <c r="B9">
-        <v>871</v>
+        <v>815</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>2025</v>
@@ -6812,13 +6783,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="B10">
-        <v>907</v>
+        <v>956</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>2500</v>
@@ -6832,13 +6803,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>802</v>
+        <v>825</v>
       </c>
       <c r="B11">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>3025</v>
@@ -6855,10 +6826,10 @@
         <v>964</v>
       </c>
       <c r="B12">
-        <v>1045</v>
+        <v>1106</v>
       </c>
       <c r="C12">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>3600</v>
@@ -6872,13 +6843,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1232</v>
+        <v>1097</v>
       </c>
       <c r="B13">
-        <v>1128</v>
+        <v>1137</v>
       </c>
       <c r="C13">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <v>4225</v>
@@ -6892,10 +6863,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1280</v>
+        <v>1284</v>
       </c>
       <c r="B14">
-        <v>1292</v>
+        <v>1330</v>
       </c>
       <c r="C14">
         <v>48</v>
@@ -6912,13 +6883,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1472</v>
+        <v>1547</v>
       </c>
       <c r="B15">
-        <v>1407</v>
+        <v>1396</v>
       </c>
       <c r="C15">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D15">
         <v>5625</v>
@@ -6932,13 +6903,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1664</v>
+        <v>1668</v>
       </c>
       <c r="B16">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="C16">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>6400</v>
@@ -6952,13 +6923,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1825</v>
+        <v>1869</v>
       </c>
       <c r="B17">
-        <v>1622</v>
+        <v>1633</v>
       </c>
       <c r="C17">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D17">
         <v>7225</v>
@@ -6972,13 +6943,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2080</v>
+        <v>2057</v>
       </c>
       <c r="B18">
         <v>1713</v>
       </c>
       <c r="C18">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D18">
         <v>8100</v>
@@ -6992,13 +6963,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2270</v>
+        <v>2263</v>
       </c>
       <c r="B19">
-        <v>1798</v>
+        <v>1772</v>
       </c>
       <c r="C19">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19">
         <v>9025</v>
@@ -7012,13 +6983,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2554</v>
+        <v>2494</v>
       </c>
       <c r="B20">
-        <v>1897</v>
+        <v>1830</v>
       </c>
       <c r="C20">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D20">
         <v>10000</v>
@@ -7065,8 +7036,8 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <f>coryGross_hw4output!A2</f>
-        <v>64</v>
+        <f>output!A2</f>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7074,8 +7045,8 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <f>coryGross_hw4output!A3</f>
-        <v>110</v>
+        <f>output!A3</f>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7083,8 +7054,8 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <f>coryGross_hw4output!A4</f>
-        <v>172</v>
+        <f>output!A4</f>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7092,8 +7063,8 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <f>coryGross_hw4output!A5</f>
-        <v>254</v>
+        <f>output!A5</f>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7101,8 +7072,8 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <f>coryGross_hw4output!A6</f>
-        <v>380</v>
+        <f>output!A6</f>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7110,8 +7081,8 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <f>coryGross_hw4output!A7</f>
-        <v>398</v>
+        <f>output!A7</f>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7119,8 +7090,8 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <f>coryGross_hw4output!A8</f>
-        <v>459</v>
+        <f>output!A8</f>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7128,7 +7099,7 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <f>coryGross_hw4output!A9</f>
+        <f>output!A9</f>
         <v>578</v>
       </c>
     </row>
@@ -7137,8 +7108,8 @@
         <v>50</v>
       </c>
       <c r="B10">
-        <f>coryGross_hw4output!A10</f>
-        <v>678</v>
+        <f>output!A10</f>
+        <v>672</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7146,8 +7117,8 @@
         <v>55</v>
       </c>
       <c r="B11">
-        <f>coryGross_hw4output!A11</f>
-        <v>802</v>
+        <f>output!A11</f>
+        <v>825</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7155,7 +7126,7 @@
         <v>60</v>
       </c>
       <c r="B12">
-        <f>coryGross_hw4output!A12</f>
+        <f>output!A12</f>
         <v>964</v>
       </c>
     </row>
@@ -7164,8 +7135,8 @@
         <v>65</v>
       </c>
       <c r="B13">
-        <f>coryGross_hw4output!A13</f>
-        <v>1232</v>
+        <f>output!A13</f>
+        <v>1097</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7173,8 +7144,8 @@
         <v>70</v>
       </c>
       <c r="B14">
-        <f>coryGross_hw4output!A14</f>
-        <v>1280</v>
+        <f>output!A14</f>
+        <v>1284</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7182,8 +7153,8 @@
         <v>75</v>
       </c>
       <c r="B15">
-        <f>coryGross_hw4output!A15</f>
-        <v>1472</v>
+        <f>output!A15</f>
+        <v>1547</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7191,8 +7162,8 @@
         <v>80</v>
       </c>
       <c r="B16">
-        <f>coryGross_hw4output!A16</f>
-        <v>1664</v>
+        <f>output!A16</f>
+        <v>1668</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7200,8 +7171,8 @@
         <v>85</v>
       </c>
       <c r="B17">
-        <f>coryGross_hw4output!A17</f>
-        <v>1825</v>
+        <f>output!A17</f>
+        <v>1869</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7209,8 +7180,8 @@
         <v>90</v>
       </c>
       <c r="B18">
-        <f>coryGross_hw4output!A18</f>
-        <v>2080</v>
+        <f>output!A18</f>
+        <v>2057</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7218,8 +7189,8 @@
         <v>95</v>
       </c>
       <c r="B19">
-        <f>coryGross_hw4output!A19</f>
-        <v>2270</v>
+        <f>output!A19</f>
+        <v>2263</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7227,8 +7198,8 @@
         <v>100</v>
       </c>
       <c r="B20">
-        <f>coryGross_hw4output!A20</f>
-        <v>2554</v>
+        <f>output!A20</f>
+        <v>2494</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7244,7 +7215,7 @@
         <v>10</v>
       </c>
       <c r="B26">
-        <f>coryGross_hw4output!D2</f>
+        <f>output!D2</f>
         <v>100</v>
       </c>
     </row>
@@ -7253,7 +7224,7 @@
         <v>15</v>
       </c>
       <c r="B27">
-        <f>coryGross_hw4output!D3</f>
+        <f>output!D3</f>
         <v>225</v>
       </c>
     </row>
@@ -7262,7 +7233,7 @@
         <v>20</v>
       </c>
       <c r="B28">
-        <f>coryGross_hw4output!D4</f>
+        <f>output!D4</f>
         <v>400</v>
       </c>
     </row>
@@ -7271,7 +7242,7 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <f>coryGross_hw4output!D5</f>
+        <f>output!D5</f>
         <v>625</v>
       </c>
     </row>
@@ -7280,7 +7251,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <f>coryGross_hw4output!D6</f>
+        <f>output!D6</f>
         <v>900</v>
       </c>
     </row>
@@ -7289,7 +7260,7 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <f>coryGross_hw4output!D7</f>
+        <f>output!D7</f>
         <v>1225</v>
       </c>
     </row>
@@ -7298,7 +7269,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <f>coryGross_hw4output!D8</f>
+        <f>output!D8</f>
         <v>1600</v>
       </c>
     </row>
@@ -7307,7 +7278,7 @@
         <v>45</v>
       </c>
       <c r="B33">
-        <f>coryGross_hw4output!D9</f>
+        <f>output!D9</f>
         <v>2025</v>
       </c>
     </row>
@@ -7316,7 +7287,7 @@
         <v>50</v>
       </c>
       <c r="B34">
-        <f>coryGross_hw4output!D10</f>
+        <f>output!D10</f>
         <v>2500</v>
       </c>
     </row>
@@ -7325,7 +7296,7 @@
         <v>55</v>
       </c>
       <c r="B35">
-        <f>coryGross_hw4output!D11</f>
+        <f>output!D11</f>
         <v>3025</v>
       </c>
     </row>
@@ -7334,7 +7305,7 @@
         <v>60</v>
       </c>
       <c r="B36">
-        <f>coryGross_hw4output!D12</f>
+        <f>output!D12</f>
         <v>3600</v>
       </c>
     </row>
@@ -7343,7 +7314,7 @@
         <v>65</v>
       </c>
       <c r="B37">
-        <f>coryGross_hw4output!D13</f>
+        <f>output!D13</f>
         <v>4225</v>
       </c>
     </row>
@@ -7352,7 +7323,7 @@
         <v>70</v>
       </c>
       <c r="B38">
-        <f>coryGross_hw4output!D14</f>
+        <f>output!D14</f>
         <v>4900</v>
       </c>
     </row>
@@ -7361,7 +7332,7 @@
         <v>75</v>
       </c>
       <c r="B39">
-        <f>coryGross_hw4output!D15</f>
+        <f>output!D15</f>
         <v>5625</v>
       </c>
     </row>
@@ -7370,7 +7341,7 @@
         <v>80</v>
       </c>
       <c r="B40">
-        <f>coryGross_hw4output!D16</f>
+        <f>output!D16</f>
         <v>6400</v>
       </c>
     </row>
@@ -7379,7 +7350,7 @@
         <v>85</v>
       </c>
       <c r="B41">
-        <f>coryGross_hw4output!D17</f>
+        <f>output!D17</f>
         <v>7225</v>
       </c>
     </row>
@@ -7388,7 +7359,7 @@
         <v>90</v>
       </c>
       <c r="B42">
-        <f>coryGross_hw4output!D18</f>
+        <f>output!D18</f>
         <v>8100</v>
       </c>
     </row>
@@ -7397,7 +7368,7 @@
         <v>95</v>
       </c>
       <c r="B43">
-        <f>coryGross_hw4output!D19</f>
+        <f>output!D19</f>
         <v>9025</v>
       </c>
     </row>
@@ -7406,7 +7377,7 @@
         <v>100</v>
       </c>
       <c r="B44">
-        <f>coryGross_hw4output!D20</f>
+        <f>output!D20</f>
         <v>10000</v>
       </c>
     </row>
@@ -7421,7 +7392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
@@ -7779,7 +7750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -7958,7 +7929,7 @@
         <v>10</v>
       </c>
       <c r="B26">
-        <f>coryGross_hw4output!F2</f>
+        <f>output!F2</f>
         <v>10</v>
       </c>
     </row>
@@ -7967,7 +7938,7 @@
         <v>15</v>
       </c>
       <c r="B27">
-        <f>coryGross_hw4output!F3</f>
+        <f>output!F3</f>
         <v>15</v>
       </c>
     </row>
@@ -7976,7 +7947,7 @@
         <v>20</v>
       </c>
       <c r="B28">
-        <f>coryGross_hw4output!F4</f>
+        <f>output!F4</f>
         <v>20</v>
       </c>
     </row>
@@ -7985,7 +7956,7 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <f>coryGross_hw4output!F5</f>
+        <f>output!F5</f>
         <v>25</v>
       </c>
     </row>
@@ -7994,7 +7965,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <f>coryGross_hw4output!F6</f>
+        <f>output!F6</f>
         <v>30</v>
       </c>
     </row>
@@ -8003,7 +7974,7 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <f>coryGross_hw4output!F7</f>
+        <f>output!F7</f>
         <v>35</v>
       </c>
     </row>
@@ -8012,7 +7983,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <f>coryGross_hw4output!F8</f>
+        <f>output!F8</f>
         <v>40</v>
       </c>
     </row>
@@ -8021,7 +7992,7 @@
         <v>45</v>
       </c>
       <c r="B33">
-        <f>coryGross_hw4output!F9</f>
+        <f>output!F9</f>
         <v>45</v>
       </c>
     </row>
@@ -8030,7 +8001,7 @@
         <v>50</v>
       </c>
       <c r="B34">
-        <f>coryGross_hw4output!F10</f>
+        <f>output!F10</f>
         <v>50</v>
       </c>
     </row>
@@ -8039,7 +8010,7 @@
         <v>55</v>
       </c>
       <c r="B35">
-        <f>coryGross_hw4output!F11</f>
+        <f>output!F11</f>
         <v>55</v>
       </c>
     </row>
@@ -8048,7 +8019,7 @@
         <v>60</v>
       </c>
       <c r="B36">
-        <f>coryGross_hw4output!F12</f>
+        <f>output!F12</f>
         <v>60</v>
       </c>
     </row>
@@ -8057,7 +8028,7 @@
         <v>65</v>
       </c>
       <c r="B37">
-        <f>coryGross_hw4output!F13</f>
+        <f>output!F13</f>
         <v>65</v>
       </c>
     </row>
@@ -8066,7 +8037,7 @@
         <v>70</v>
       </c>
       <c r="B38">
-        <f>coryGross_hw4output!F14</f>
+        <f>output!F14</f>
         <v>70</v>
       </c>
     </row>
@@ -8075,7 +8046,7 @@
         <v>75</v>
       </c>
       <c r="B39">
-        <f>coryGross_hw4output!F15</f>
+        <f>output!F15</f>
         <v>75</v>
       </c>
     </row>
@@ -8084,7 +8055,7 @@
         <v>80</v>
       </c>
       <c r="B40">
-        <f>coryGross_hw4output!F16</f>
+        <f>output!F16</f>
         <v>80</v>
       </c>
     </row>
@@ -8093,7 +8064,7 @@
         <v>85</v>
       </c>
       <c r="B41">
-        <f>coryGross_hw4output!F17</f>
+        <f>output!F17</f>
         <v>85</v>
       </c>
     </row>
@@ -8102,7 +8073,7 @@
         <v>90</v>
       </c>
       <c r="B42">
-        <f>coryGross_hw4output!F18</f>
+        <f>output!F18</f>
         <v>90</v>
       </c>
     </row>
@@ -8111,7 +8082,7 @@
         <v>95</v>
       </c>
       <c r="B43">
-        <f>coryGross_hw4output!F19</f>
+        <f>output!F19</f>
         <v>95</v>
       </c>
     </row>
@@ -8120,7 +8091,7 @@
         <v>100</v>
       </c>
       <c r="B44">
-        <f>coryGross_hw4output!F20</f>
+        <f>output!F20</f>
         <v>100</v>
       </c>
     </row>
